--- a/data/H2O-220.xlsx
+++ b/data/H2O-220.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://surreyac-my.sharepoint.com/personal/md01522_surrey_ac_uk/Documents/PhD Surrey/My Project/Python files/Kinetics/PE models/Implicit PE/Surrey Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F1E14136-DDB3-454C-B055-9E6510F46235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87042471-82C1-4FAE-A324-227E202F5E47}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{28C3B2BD-AF4D-4DF0-A633-EEB3ACAB06FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3EA6085-7593-48F9-90DD-741D590D8B37}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE29BAB3-1174-4539-BE8E-0A7DB9341039}"/>
   </bookViews>
@@ -1059,257 +1059,290 @@
                 <c:pt idx="282">
                   <c:v>1692</c:v>
                 </c:pt>
+                <c:pt idx="283">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1710</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1758</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'H2O-220'!$B$13:$B$352</c:f>
+              <c:f>'H2O-220'!$B$2:$B$336</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="340"/>
+                <c:ptCount val="335"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="18">
                   <c:v>0.11</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="19">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="22">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>0.21</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>0.27</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>0.31</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>0.36</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>0.61</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>0.66</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>0.69</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.9</c:v>
@@ -1318,7 +1351,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.91</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0.9</c:v>
@@ -1333,568 +1366,568 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="95">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="96">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="97">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="98">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="99">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="100">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="101">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="102">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="103">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="104">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="105">
                   <c:v>0.86</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="106">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="107">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="108">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="109">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="110">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="111">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="112">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="113">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="114">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="115">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="116">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="117">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="118">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="119">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="120">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="121">
                   <c:v>0.77</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="122">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="123">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="124">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="125">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="126">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="128">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="129">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="130">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="131">
                   <c:v>0.71</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="132">
                   <c:v>0.69</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="133">
                   <c:v>0.69</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="134">
                   <c:v>0.69</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="135">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="136">
                   <c:v>0.67</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="137">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="138">
                   <c:v>0.66</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="139">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="140">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="141">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="142">
                   <c:v>0.64</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="143">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="144">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="145">
                   <c:v>0.61</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="146">
                   <c:v>0.61</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="147">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="148">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="149">
                   <c:v>0.59</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="150">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="151">
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="152">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="153">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="154">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="155">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="156">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="157">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="158">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="159">
                   <c:v>0.53</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="160">
                   <c:v>0.52</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="161">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="162">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="163">
                   <c:v>0.51</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="164">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="165">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="166">
                   <c:v>0.49</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="167">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="168">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="169">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="170">
                   <c:v>0.47</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="171">
                   <c:v>0.37946295626056903</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="172">
                   <c:v>0.44434910802834193</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="173">
                   <c:v>0.42617570174074121</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="174">
                   <c:v>0.43534531809277976</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="175">
                   <c:v>0.36968593747509881</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="176">
                   <c:v>0.37196695890300935</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="177">
                   <c:v>0.36956395361829253</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="178">
                   <c:v>0.41104851319500196</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="179">
                   <c:v>0.34445266224397386</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="180">
                   <c:v>0.38036606230463377</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="181">
                   <c:v>0.34790233308966895</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="182">
                   <c:v>0.36524015474285559</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="183">
                   <c:v>0.34419231757604002</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="184">
                   <c:v>0.35610624989725603</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="185">
                   <c:v>0.33247758247939924</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="186">
                   <c:v>0.35511104522432962</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="187">
                   <c:v>0.30493830450310955</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="188">
                   <c:v>0.34467685523075792</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="189">
                   <c:v>0.31844248534909431</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="190">
                   <c:v>0.29883102869023048</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="191">
                   <c:v>0.30726075550883936</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="192">
                   <c:v>0.30737366742786387</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="193">
                   <c:v>0.2725634050913614</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="194">
                   <c:v>0.28057693070795242</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="195">
                   <c:v>0.27214602565491031</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="196">
                   <c:v>0.26003501081054903</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="197">
                   <c:v>0.26945472167240059</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="198">
                   <c:v>0.24761739389906759</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="199">
                   <c:v>0.23332293647192376</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="200">
                   <c:v>0.22834072756816681</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="201">
                   <c:v>0.24098807988448964</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="202">
                   <c:v>0.21575581758736692</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="203">
                   <c:v>0.22929755105552826</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="204">
                   <c:v>0.23214614111871187</c:v>
                 </c:pt>
-                <c:pt idx="199">
+                <c:pt idx="205">
                   <c:v>0.2298293498078515</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="206">
                   <c:v>0.20991818627151432</c:v>
                 </c:pt>
-                <c:pt idx="201">
+                <c:pt idx="207">
                   <c:v>0.18953653984871965</c:v>
                 </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="208">
                   <c:v>0.17618916701628959</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="209">
                   <c:v>0.17804952469233853</c:v>
                 </c:pt>
-                <c:pt idx="204">
+                <c:pt idx="210">
                   <c:v>0.1645155022610883</c:v>
                 </c:pt>
-                <c:pt idx="205">
+                <c:pt idx="211">
                   <c:v>0.17676232753149088</c:v>
                 </c:pt>
-                <c:pt idx="206">
+                <c:pt idx="212">
                   <c:v>0.17622919908798237</c:v>
                 </c:pt>
-                <c:pt idx="207">
+                <c:pt idx="213">
                   <c:v>0.15376355669863018</c:v>
                 </c:pt>
-                <c:pt idx="208">
+                <c:pt idx="214">
                   <c:v>0.15967656581106812</c:v>
                 </c:pt>
-                <c:pt idx="209">
+                <c:pt idx="215">
                   <c:v>0.14912103794057693</c:v>
                 </c:pt>
-                <c:pt idx="210">
+                <c:pt idx="216">
                   <c:v>0.13296404234557746</c:v>
                 </c:pt>
-                <c:pt idx="211">
+                <c:pt idx="217">
                   <c:v>0.13310542435533335</c:v>
                 </c:pt>
-                <c:pt idx="212">
+                <c:pt idx="218">
                   <c:v>0.12154956471318143</c:v>
                 </c:pt>
-                <c:pt idx="213">
+                <c:pt idx="219">
                   <c:v>0.12257581566907305</c:v>
                 </c:pt>
-                <c:pt idx="214">
+                <c:pt idx="220">
                   <c:v>0.10672568442228485</c:v>
                 </c:pt>
-                <c:pt idx="215">
+                <c:pt idx="221">
                   <c:v>0.1111526567396213</c:v>
                 </c:pt>
-                <c:pt idx="216">
+                <c:pt idx="222">
                   <c:v>9.7054832942874467E-2</c:v>
                 </c:pt>
-                <c:pt idx="217">
+                <c:pt idx="223">
                   <c:v>0.10373358953722374</c:v>
                 </c:pt>
-                <c:pt idx="218">
+                <c:pt idx="224">
                   <c:v>8.6005514572274386E-2</c:v>
                 </c:pt>
-                <c:pt idx="219">
+                <c:pt idx="225">
                   <c:v>9.0169156132296438E-2</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="226">
                   <c:v>8.5447643309867344E-2</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="227">
                   <c:v>7.4276152774600313E-2</c:v>
                 </c:pt>
-                <c:pt idx="222">
+                <c:pt idx="228">
                   <c:v>6.6716210735434156E-2</c:v>
                 </c:pt>
-                <c:pt idx="223">
+                <c:pt idx="229">
                   <c:v>6.3093042019829737E-2</c:v>
                 </c:pt>
-                <c:pt idx="224">
+                <c:pt idx="230">
                   <c:v>6.4079653313048338E-2</c:v>
                 </c:pt>
-                <c:pt idx="225">
+                <c:pt idx="231">
                   <c:v>5.0587122750596757E-2</c:v>
                 </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="232">
                   <c:v>5.3432833252535797E-2</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="233">
                   <c:v>4.9661496869127679E-2</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="234">
                   <c:v>4.3056835306817108E-2</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="235">
                   <c:v>4.1762836878039028E-2</c:v>
                 </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="236">
                   <c:v>3.9150002263353814E-2</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="237">
                   <c:v>3.0217189737102978E-2</c:v>
                 </c:pt>
-                <c:pt idx="232">
+                <c:pt idx="238">
                   <c:v>3.2697187796523967E-2</c:v>
                 </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="239">
                   <c:v>2.6142323583014826E-2</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="240">
                   <c:v>2.4900621253297013E-2</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="241">
                   <c:v>2.3708775879600096E-2</c:v>
                 </c:pt>
-                <c:pt idx="236">
+                <c:pt idx="242">
                   <c:v>2.1400982936459458E-2</c:v>
                 </c:pt>
-                <c:pt idx="237">
+                <c:pt idx="243">
                   <c:v>2.0131783829100088E-2</c:v>
                 </c:pt>
-                <c:pt idx="238">
+                <c:pt idx="244">
                   <c:v>1.9445887514838774E-2</c:v>
                 </c:pt>
-                <c:pt idx="239">
+                <c:pt idx="245">
                   <c:v>1.5019144777111771E-2</c:v>
                 </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="246">
                   <c:v>1.347365265736881E-2</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="247">
                   <c:v>1.3833793113558106E-2</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="248">
                   <c:v>1.2638164962913312E-2</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="249">
                   <c:v>1.1564431187124012E-2</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="250">
                   <c:v>1.0475703879279446E-2</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="251">
                   <c:v>8.9924773686684955E-3</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="252">
                   <c:v>7.7836420212174144E-3</c:v>
                 </c:pt>
-                <c:pt idx="247">
+                <c:pt idx="253">
                   <c:v>6.3998123677269491E-3</c:v>
                 </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="254">
                   <c:v>6.3883193645768565E-3</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="255">
                   <c:v>5.6344173487780725E-3</c:v>
                 </c:pt>
-                <c:pt idx="250">
+                <c:pt idx="256">
                   <c:v>4.8160635618609586E-3</c:v>
                 </c:pt>
-                <c:pt idx="251">
+                <c:pt idx="257">
                   <c:v>4.0715344175005774E-3</c:v>
                 </c:pt>
-                <c:pt idx="252">
+                <c:pt idx="258">
                   <c:v>3.3960962650017553E-3</c:v>
                 </c:pt>
-                <c:pt idx="253">
+                <c:pt idx="259">
                   <c:v>3.3385409060165093E-3</c:v>
                 </c:pt>
-                <c:pt idx="254">
+                <c:pt idx="260">
                   <c:v>2.5431105371724692E-3</c:v>
                 </c:pt>
-                <c:pt idx="255">
+                <c:pt idx="261">
                   <c:v>2.196809830987888E-3</c:v>
                 </c:pt>
-                <c:pt idx="256">
+                <c:pt idx="262">
                   <c:v>1.9611653603355955E-3</c:v>
                 </c:pt>
-                <c:pt idx="257">
+                <c:pt idx="263">
                   <c:v>1.7555790631105445E-3</c:v>
                 </c:pt>
-                <c:pt idx="258">
+                <c:pt idx="264">
                   <c:v>1.368135976141423E-3</c:v>
                 </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="265">
                   <c:v>1.1490193993368143E-3</c:v>
                 </c:pt>
-                <c:pt idx="260">
+                <c:pt idx="266">
                   <c:v>9.2340802857844291E-4</c:v>
                 </c:pt>
-                <c:pt idx="261">
+                <c:pt idx="267">
                   <c:v>7.8332309838098223E-4</c:v>
                 </c:pt>
-                <c:pt idx="262">
+                <c:pt idx="268">
                   <c:v>6.1990530983064868E-4</c:v>
                 </c:pt>
-                <c:pt idx="263">
+                <c:pt idx="269">
                   <c:v>4.2817900196283137E-4</c:v>
                 </c:pt>
-                <c:pt idx="264">
+                <c:pt idx="270">
                   <c:v>3.3626469976897678E-4</c:v>
                 </c:pt>
-                <c:pt idx="265">
+                <c:pt idx="271">
                   <c:v>2.2320646321010075E-4</c:v>
                 </c:pt>
-                <c:pt idx="266">
+                <c:pt idx="272">
                   <c:v>1.3724091377526155E-4</c:v>
                 </c:pt>
-                <c:pt idx="267">
+                <c:pt idx="273">
                   <c:v>7.1957052072373474E-5</c:v>
                 </c:pt>
-                <c:pt idx="268">
+                <c:pt idx="274">
                   <c:v>3.4625581899536438E-5</c:v>
                 </c:pt>
-                <c:pt idx="269">
+                <c:pt idx="275">
                   <c:v>8.702883652035869E-6</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="276">
                   <c:v>0</c:v>
@@ -1915,6 +1948,39 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1923,7 +1989,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C187-484E-AC94-C5406D6C79B0}"/>
+              <c16:uniqueId val="{00000000-3F04-4B36-B298-A59C67A12497}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1935,11 +2001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2044029344"/>
-        <c:axId val="2044030784"/>
+        <c:axId val="1100624303"/>
+        <c:axId val="1100637263"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2044029344"/>
+        <c:axId val="1100624303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,12 +2062,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044030784"/>
+        <c:crossAx val="1100637263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2044030784"/>
+        <c:axId val="1100637263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044029344"/>
+        <c:crossAx val="1100624303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2674,23 +2740,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>509220</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370010</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>216143</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76933</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC34BFF-A6E7-1568-15DF-681B50BEE4EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A19F734-68FA-7CE5-A6A8-69B719D7E2C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,7 +3101,7 @@
   <dimension ref="A1:B341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3170,7 @@
         <v>35.999999999998181</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3178,7 @@
         <v>41.999999999998181</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3186,7 @@
         <v>47.999999999998181</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3194,7 @@
         <v>53.999999999998181</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3202,7 @@
         <v>59.999999999998181</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3210,7 @@
         <v>65.999999999996362</v>
       </c>
       <c r="B13" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3218,7 @@
         <v>71.999999999996362</v>
       </c>
       <c r="B14" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3226,7 @@
         <v>77.999999999996362</v>
       </c>
       <c r="B15" s="1">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3234,7 @@
         <v>83.999999999996362</v>
       </c>
       <c r="B16" s="1">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3242,7 @@
         <v>89.999999999996362</v>
       </c>
       <c r="B17" s="1">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3250,7 @@
         <v>95.999999999994543</v>
       </c>
       <c r="B18" s="1">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3192,7 +3258,7 @@
         <v>101.99999999999454</v>
       </c>
       <c r="B19" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3200,7 +3266,7 @@
         <v>107.99999999999454</v>
       </c>
       <c r="B20" s="1">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3208,7 +3274,7 @@
         <v>113.99999999999454</v>
       </c>
       <c r="B21" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3216,7 +3282,7 @@
         <v>119.99999999999454</v>
       </c>
       <c r="B22" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3290,7 @@
         <v>125.99999999999272</v>
       </c>
       <c r="B23" s="1">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3232,7 +3298,7 @@
         <v>131.99999999999272</v>
       </c>
       <c r="B24" s="1">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3240,7 +3306,7 @@
         <v>137.99999999999272</v>
       </c>
       <c r="B25" s="1">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3248,7 +3314,7 @@
         <v>143.99999999999272</v>
       </c>
       <c r="B26" s="1">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3256,7 +3322,7 @@
         <v>149.99999999999272</v>
       </c>
       <c r="B27" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3264,7 +3330,7 @@
         <v>155.99999999999272</v>
       </c>
       <c r="B28" s="1">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3272,7 +3338,7 @@
         <v>161.99999999999091</v>
       </c>
       <c r="B29" s="1">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3280,7 +3346,7 @@
         <v>167.99999999999091</v>
       </c>
       <c r="B30" s="1">
-        <v>0.19</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3288,7 +3354,7 @@
         <v>173.99999999999091</v>
       </c>
       <c r="B31" s="1">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3296,7 +3362,7 @@
         <v>179.99999999999091</v>
       </c>
       <c r="B32" s="1">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3304,7 +3370,7 @@
         <v>185.99999999999091</v>
       </c>
       <c r="B33" s="1">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3312,7 +3378,7 @@
         <v>191.99999999998909</v>
       </c>
       <c r="B34" s="1">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3320,7 +3386,7 @@
         <v>197.99999999998909</v>
       </c>
       <c r="B35" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3328,7 +3394,7 @@
         <v>203.99999999998909</v>
       </c>
       <c r="B36" s="1">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3336,7 +3402,7 @@
         <v>209.99999999998909</v>
       </c>
       <c r="B37" s="1">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3344,7 +3410,7 @@
         <v>215.99999999998909</v>
       </c>
       <c r="B38" s="1">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3418,7 @@
         <v>221.99999999998909</v>
       </c>
       <c r="B39" s="1">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3368,7 +3434,7 @@
         <v>233.99999999998727</v>
       </c>
       <c r="B41" s="1">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,7 +3442,7 @@
         <v>239.99999999998727</v>
       </c>
       <c r="B42" s="1">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3384,7 +3450,7 @@
         <v>245.99999999998727</v>
       </c>
       <c r="B43" s="1">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3392,7 +3458,7 @@
         <v>251.99999999998727</v>
       </c>
       <c r="B44" s="1">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3400,7 +3466,7 @@
         <v>257.99999999998545</v>
       </c>
       <c r="B45" s="1">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3408,7 +3474,7 @@
         <v>263.99999999998545</v>
       </c>
       <c r="B46" s="1">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3416,7 +3482,7 @@
         <v>269.99999999998545</v>
       </c>
       <c r="B47" s="1">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3424,7 +3490,7 @@
         <v>275.99999999998545</v>
       </c>
       <c r="B48" s="1">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3432,7 +3498,7 @@
         <v>281.99999999998545</v>
       </c>
       <c r="B49" s="1">
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3440,7 +3506,7 @@
         <v>287.99999999998363</v>
       </c>
       <c r="B50" s="1">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3448,7 +3514,7 @@
         <v>293.99999999998363</v>
       </c>
       <c r="B51" s="1">
-        <v>0.46</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3456,7 +3522,7 @@
         <v>299.99999999998363</v>
       </c>
       <c r="B52" s="1">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3464,7 +3530,7 @@
         <v>305.99999999998363</v>
       </c>
       <c r="B53" s="1">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3472,7 +3538,7 @@
         <v>311.99999999998363</v>
       </c>
       <c r="B54" s="1">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3480,7 +3546,7 @@
         <v>317.99999999998181</v>
       </c>
       <c r="B55" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3488,7 +3554,7 @@
         <v>323.99999999998181</v>
       </c>
       <c r="B56" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3496,7 +3562,7 @@
         <v>329.99999999998181</v>
       </c>
       <c r="B57" s="1">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3504,7 +3570,7 @@
         <v>335.99999999998181</v>
       </c>
       <c r="B58" s="1">
-        <v>0.61</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3512,7 +3578,7 @@
         <v>341.99999999998181</v>
       </c>
       <c r="B59" s="1">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3520,7 +3586,7 @@
         <v>347.99999999998181</v>
       </c>
       <c r="B60" s="1">
-        <v>0.64</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3528,7 +3594,7 @@
         <v>353.99999999997999</v>
       </c>
       <c r="B61" s="1">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3536,7 +3602,7 @@
         <v>359.99999999997999</v>
       </c>
       <c r="B62" s="1">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3544,7 +3610,7 @@
         <v>365.99999999997999</v>
       </c>
       <c r="B63" s="1">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3552,7 +3618,7 @@
         <v>371.99999999997999</v>
       </c>
       <c r="B64" s="1">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3560,7 +3626,7 @@
         <v>377.99999999997999</v>
       </c>
       <c r="B65" s="1">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3568,7 +3634,7 @@
         <v>383.99999999997817</v>
       </c>
       <c r="B66" s="1">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3576,7 +3642,7 @@
         <v>389.99999999997817</v>
       </c>
       <c r="B67" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3584,7 +3650,7 @@
         <v>395.99999999997817</v>
       </c>
       <c r="B68" s="1">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3592,7 +3658,7 @@
         <v>401.99999999997817</v>
       </c>
       <c r="B69" s="1">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3600,7 +3666,7 @@
         <v>407.99999999997817</v>
       </c>
       <c r="B70" s="1">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3608,7 +3674,7 @@
         <v>413.99999999997817</v>
       </c>
       <c r="B71" s="1">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3616,7 +3682,7 @@
         <v>419.99999999997635</v>
       </c>
       <c r="B72" s="1">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3624,7 +3690,7 @@
         <v>425.99999999997635</v>
       </c>
       <c r="B73" s="1">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3632,7 +3698,7 @@
         <v>431.99999999997635</v>
       </c>
       <c r="B74" s="1">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3640,7 +3706,7 @@
         <v>437.99999999997635</v>
       </c>
       <c r="B75" s="1">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3648,7 +3714,7 @@
         <v>443.99999999997635</v>
       </c>
       <c r="B76" s="1">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3656,7 +3722,7 @@
         <v>449.99999999997453</v>
       </c>
       <c r="B77" s="1">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3664,7 +3730,7 @@
         <v>455.99999999997453</v>
       </c>
       <c r="B78" s="1">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3672,7 +3738,7 @@
         <v>461.99999999997453</v>
       </c>
       <c r="B79" s="1">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3680,7 +3746,7 @@
         <v>467.99999999997453</v>
       </c>
       <c r="B80" s="1">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3688,7 +3754,7 @@
         <v>473.99999999997453</v>
       </c>
       <c r="B81" s="1">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3696,7 +3762,7 @@
         <v>479.99999999997272</v>
       </c>
       <c r="B82" s="1">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3704,7 +3770,7 @@
         <v>485.99999999997272</v>
       </c>
       <c r="B83" s="1">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3712,7 +3778,7 @@
         <v>491.99999999997272</v>
       </c>
       <c r="B84" s="1">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3728,7 +3794,7 @@
         <v>503.99999999997272</v>
       </c>
       <c r="B86" s="1">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3736,7 +3802,7 @@
         <v>509.9999999999709</v>
       </c>
       <c r="B87" s="1">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3760,7 +3826,7 @@
         <v>527.9999999999709</v>
       </c>
       <c r="B90" s="1">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3768,7 +3834,7 @@
         <v>533.9999999999709</v>
       </c>
       <c r="B91" s="1">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3808,7 +3874,7 @@
         <v>563.99999999996908</v>
       </c>
       <c r="B96" s="1">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3816,7 +3882,7 @@
         <v>569.99999999996908</v>
       </c>
       <c r="B97" s="1">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3824,7 +3890,7 @@
         <v>575.99999999996726</v>
       </c>
       <c r="B98" s="1">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3832,7 +3898,7 @@
         <v>581.99999999996726</v>
       </c>
       <c r="B99" s="1">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3840,7 +3906,7 @@
         <v>587.99999999996726</v>
       </c>
       <c r="B100" s="1">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3848,7 +3914,7 @@
         <v>593.99999999996726</v>
       </c>
       <c r="B101" s="1">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3922,7 @@
         <v>599.99999999996726</v>
       </c>
       <c r="B102" s="1">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3864,7 +3930,7 @@
         <v>605.99999999996726</v>
       </c>
       <c r="B103" s="1">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3872,7 +3938,7 @@
         <v>611.99999999996544</v>
       </c>
       <c r="B104" s="1">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3880,7 +3946,7 @@
         <v>617.99999999996544</v>
       </c>
       <c r="B105" s="1">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3888,7 +3954,7 @@
         <v>623.99999999996544</v>
       </c>
       <c r="B106" s="1">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3896,7 +3962,7 @@
         <v>629.99999999996544</v>
       </c>
       <c r="B107" s="1">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3904,7 +3970,7 @@
         <v>635.99999999996544</v>
       </c>
       <c r="B108" s="1">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3912,7 +3978,7 @@
         <v>641.99999999996362</v>
       </c>
       <c r="B109" s="1">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3920,7 +3986,7 @@
         <v>647.99999999996362</v>
       </c>
       <c r="B110" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3928,7 +3994,7 @@
         <v>653.99999999996362</v>
       </c>
       <c r="B111" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3936,7 +4002,7 @@
         <v>659.99999999996362</v>
       </c>
       <c r="B112" s="1">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3944,7 +4010,7 @@
         <v>665.99999999996362</v>
       </c>
       <c r="B113" s="1">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3952,7 +4018,7 @@
         <v>671.9999999999618</v>
       </c>
       <c r="B114" s="1">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3960,7 +4026,7 @@
         <v>677.9999999999618</v>
       </c>
       <c r="B115" s="1">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3968,7 +4034,7 @@
         <v>683.9999999999618</v>
       </c>
       <c r="B116" s="1">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3976,7 +4042,7 @@
         <v>689.9999999999618</v>
       </c>
       <c r="B117" s="1">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3984,7 +4050,7 @@
         <v>695.9999999999618</v>
       </c>
       <c r="B118" s="1">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3992,7 +4058,7 @@
         <v>701.99999999995998</v>
       </c>
       <c r="B119" s="1">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4000,7 +4066,7 @@
         <v>707.99999999995998</v>
       </c>
       <c r="B120" s="1">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4008,7 +4074,7 @@
         <v>713.99999999995998</v>
       </c>
       <c r="B121" s="1">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4016,7 +4082,7 @@
         <v>719.99999999995998</v>
       </c>
       <c r="B122" s="1">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4024,7 +4090,7 @@
         <v>725.99999999995998</v>
       </c>
       <c r="B123" s="1">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="124" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4032,7 +4098,7 @@
         <v>731.99999999995998</v>
       </c>
       <c r="B124" s="1">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4040,7 +4106,7 @@
         <v>737.99999999995816</v>
       </c>
       <c r="B125" s="1">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="126" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4114,7 @@
         <v>743.99999999995816</v>
       </c>
       <c r="B126" s="1">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="127" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4056,7 +4122,7 @@
         <v>749.99999999995816</v>
       </c>
       <c r="B127" s="1">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4064,7 +4130,7 @@
         <v>755.99999999995816</v>
       </c>
       <c r="B128" s="1">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4072,7 +4138,7 @@
         <v>761.99999999995816</v>
       </c>
       <c r="B129" s="1">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="130" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4080,7 +4146,7 @@
         <v>767.99999999995634</v>
       </c>
       <c r="B130" s="1">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="131" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4088,7 +4154,7 @@
         <v>773.99999999995634</v>
       </c>
       <c r="B131" s="1">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4096,7 +4162,7 @@
         <v>779.99999999995634</v>
       </c>
       <c r="B132" s="1">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="133" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4104,7 +4170,7 @@
         <v>785.99999999995634</v>
       </c>
       <c r="B133" s="1">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="134" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4112,7 +4178,7 @@
         <v>791.99999999995634</v>
       </c>
       <c r="B134" s="1">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="135" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4120,7 +4186,7 @@
         <v>797.99999999995634</v>
       </c>
       <c r="B135" s="1">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="136" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4128,7 +4194,7 @@
         <v>803.99999999995453</v>
       </c>
       <c r="B136" s="1">
-        <v>0.72</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="137" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4136,7 +4202,7 @@
         <v>809.99999999995453</v>
       </c>
       <c r="B137" s="1">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="138" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4144,7 +4210,7 @@
         <v>815.99999999995453</v>
       </c>
       <c r="B138" s="1">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="139" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4152,7 +4218,7 @@
         <v>821.99999999995453</v>
       </c>
       <c r="B139" s="1">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="140" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4160,7 +4226,7 @@
         <v>827.99999999995453</v>
       </c>
       <c r="B140" s="1">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4168,7 +4234,7 @@
         <v>833.99999999995271</v>
       </c>
       <c r="B141" s="1">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="142" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4176,7 +4242,7 @@
         <v>839.99999999995271</v>
       </c>
       <c r="B142" s="1">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="143" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4184,7 +4250,7 @@
         <v>845.99999999995271</v>
       </c>
       <c r="B143" s="1">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="144" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4192,7 +4258,7 @@
         <v>851.99999999995271</v>
       </c>
       <c r="B144" s="1">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="145" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4200,7 +4266,7 @@
         <v>857.99999999995271</v>
       </c>
       <c r="B145" s="1">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="146" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4208,7 +4274,7 @@
         <v>863.99999999995089</v>
       </c>
       <c r="B146" s="1">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="147" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4282,7 @@
         <v>869.99999999995089</v>
       </c>
       <c r="B147" s="1">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4224,7 +4290,7 @@
         <v>875.99999999995089</v>
       </c>
       <c r="B148" s="1">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4232,7 +4298,7 @@
         <v>881.99999999995089</v>
       </c>
       <c r="B149" s="1">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="150" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4240,7 +4306,7 @@
         <v>887.99999999995089</v>
       </c>
       <c r="B150" s="1">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="151" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4248,7 +4314,7 @@
         <v>893.99999999994907</v>
       </c>
       <c r="B151" s="1">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,7 +4322,7 @@
         <v>899.99999999994907</v>
       </c>
       <c r="B152" s="1">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="153" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4264,7 +4330,7 @@
         <v>905.99999999994907</v>
       </c>
       <c r="B153" s="1">
-        <v>0.61</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4272,7 +4338,7 @@
         <v>911.99999999994907</v>
       </c>
       <c r="B154" s="1">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4280,7 +4346,7 @@
         <v>917.99999999994907</v>
       </c>
       <c r="B155" s="1">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4288,7 +4354,7 @@
         <v>923.99999999994907</v>
       </c>
       <c r="B156" s="1">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="157" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4296,7 +4362,7 @@
         <v>929.99999999994725</v>
       </c>
       <c r="B157" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="158" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4304,7 +4370,7 @@
         <v>935.99999999994725</v>
       </c>
       <c r="B158" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="159" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4312,7 +4378,7 @@
         <v>941.99999999994725</v>
       </c>
       <c r="B159" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="160" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4320,7 +4386,7 @@
         <v>947.99999999994725</v>
       </c>
       <c r="B160" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="161" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4328,7 +4394,7 @@
         <v>953.99999999994725</v>
       </c>
       <c r="B161" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="162" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4336,7 +4402,7 @@
         <v>959.99999999994543</v>
       </c>
       <c r="B162" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="163" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4344,7 +4410,7 @@
         <v>965.99999999994543</v>
       </c>
       <c r="B163" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="164" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4352,7 +4418,7 @@
         <v>971.99999999994543</v>
       </c>
       <c r="B164" s="1">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="165" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4360,7 +4426,7 @@
         <v>977.99999999994543</v>
       </c>
       <c r="B165" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="166" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4434,7 @@
         <v>983.99999999994543</v>
       </c>
       <c r="B166" s="1">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="167" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4376,7 +4442,7 @@
         <v>989.99999999994543</v>
       </c>
       <c r="B167" s="1">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="168" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4384,7 +4450,7 @@
         <v>995.99999999994361</v>
       </c>
       <c r="B168" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="169" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4392,7 +4458,7 @@
         <v>1001.9999999999436</v>
       </c>
       <c r="B169" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="170" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4400,7 +4466,7 @@
         <v>1007.9999999999436</v>
       </c>
       <c r="B170" s="1">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="171" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4408,7 +4474,7 @@
         <v>1013.9999999999436</v>
       </c>
       <c r="B171" s="1">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="172" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4416,47 +4482,47 @@
         <v>1019.9999999999436</v>
       </c>
       <c r="B172" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="173" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1025.9999999999418</v>
       </c>
-      <c r="B173" s="1">
-        <v>0.49</v>
+      <c r="B173">
+        <v>0.37946295626056903</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1031.9999999999418</v>
       </c>
-      <c r="B174" s="1">
-        <v>0.48</v>
+      <c r="B174">
+        <v>0.44434910802834193</v>
       </c>
     </row>
     <row r="175" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1037.9999999999418</v>
       </c>
-      <c r="B175" s="1">
-        <v>0.47</v>
+      <c r="B175">
+        <v>0.42617570174074121</v>
       </c>
     </row>
     <row r="176" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1043.9999999999418</v>
       </c>
-      <c r="B176" s="1">
-        <v>0.47</v>
+      <c r="B176">
+        <v>0.43534531809277976</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1049.9999999999418</v>
       </c>
-      <c r="B177" s="1">
-        <v>0.47</v>
+      <c r="B177">
+        <v>0.36968593747509881</v>
       </c>
     </row>
     <row r="178" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4464,7 +4530,7 @@
         <v>1055.99999999994</v>
       </c>
       <c r="B178">
-        <v>0.37946295626056903</v>
+        <v>0.37196695890300935</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,7 +4538,7 @@
         <v>1061.99999999994</v>
       </c>
       <c r="B179">
-        <v>0.44434910802834193</v>
+        <v>0.36956395361829253</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,7 +4546,7 @@
         <v>1067.99999999994</v>
       </c>
       <c r="B180">
-        <v>0.42617570174074121</v>
+        <v>0.41104851319500196</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4554,7 @@
         <v>1073.99999999994</v>
       </c>
       <c r="B181">
-        <v>0.43534531809277976</v>
+        <v>0.34445266224397386</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4562,7 @@
         <v>1079.99999999994</v>
       </c>
       <c r="B182">
-        <v>0.36968593747509881</v>
+        <v>0.38036606230463377</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4570,7 @@
         <v>1085.9999999999382</v>
       </c>
       <c r="B183">
-        <v>0.37196695890300935</v>
+        <v>0.34790233308966895</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4512,7 +4578,7 @@
         <v>1091.9999999999382</v>
       </c>
       <c r="B184">
-        <v>0.36956395361829253</v>
+        <v>0.36524015474285559</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,7 +4586,7 @@
         <v>1098</v>
       </c>
       <c r="B185">
-        <v>0.41104851319500196</v>
+        <v>0.34419231757604002</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4528,7 +4594,7 @@
         <v>1104</v>
       </c>
       <c r="B186">
-        <v>0.34445266224397386</v>
+        <v>0.35610624989725603</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4602,7 @@
         <v>1110</v>
       </c>
       <c r="B187">
-        <v>0.38036606230463377</v>
+        <v>0.33247758247939924</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4610,7 @@
         <v>1116</v>
       </c>
       <c r="B188">
-        <v>0.34790233308966895</v>
+        <v>0.35511104522432962</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,7 +4618,7 @@
         <v>1122</v>
       </c>
       <c r="B189">
-        <v>0.36524015474285559</v>
+        <v>0.30493830450310955</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4560,7 +4626,7 @@
         <v>1128</v>
       </c>
       <c r="B190">
-        <v>0.34419231757604002</v>
+        <v>0.34467685523075792</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4568,7 +4634,7 @@
         <v>1134</v>
       </c>
       <c r="B191">
-        <v>0.35610624989725603</v>
+        <v>0.31844248534909431</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4642,7 @@
         <v>1140</v>
       </c>
       <c r="B192">
-        <v>0.33247758247939924</v>
+        <v>0.29883102869023048</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4650,7 @@
         <v>1146</v>
       </c>
       <c r="B193">
-        <v>0.35511104522432962</v>
+        <v>0.30726075550883936</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4592,7 +4658,7 @@
         <v>1152</v>
       </c>
       <c r="B194">
-        <v>0.30493830450310955</v>
+        <v>0.30737366742786387</v>
       </c>
     </row>
     <row r="195" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4600,7 +4666,7 @@
         <v>1158</v>
       </c>
       <c r="B195">
-        <v>0.34467685523075792</v>
+        <v>0.2725634050913614</v>
       </c>
     </row>
     <row r="196" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4608,7 +4674,7 @@
         <v>1164</v>
       </c>
       <c r="B196">
-        <v>0.31844248534909431</v>
+        <v>0.28057693070795242</v>
       </c>
     </row>
     <row r="197" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4616,7 +4682,7 @@
         <v>1170</v>
       </c>
       <c r="B197">
-        <v>0.29883102869023048</v>
+        <v>0.27214602565491031</v>
       </c>
     </row>
     <row r="198" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4624,7 +4690,7 @@
         <v>1176</v>
       </c>
       <c r="B198">
-        <v>0.30726075550883936</v>
+        <v>0.26003501081054903</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4632,7 +4698,7 @@
         <v>1182</v>
       </c>
       <c r="B199">
-        <v>0.30737366742786387</v>
+        <v>0.26945472167240059</v>
       </c>
     </row>
     <row r="200" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4640,7 +4706,7 @@
         <v>1188</v>
       </c>
       <c r="B200">
-        <v>0.2725634050913614</v>
+        <v>0.24761739389906759</v>
       </c>
     </row>
     <row r="201" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4648,7 +4714,7 @@
         <v>1194</v>
       </c>
       <c r="B201">
-        <v>0.28057693070795242</v>
+        <v>0.23332293647192376</v>
       </c>
     </row>
     <row r="202" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4656,7 +4722,7 @@
         <v>1200</v>
       </c>
       <c r="B202">
-        <v>0.27214602565491031</v>
+        <v>0.22834072756816681</v>
       </c>
     </row>
     <row r="203" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4664,7 +4730,7 @@
         <v>1206</v>
       </c>
       <c r="B203">
-        <v>0.26003501081054903</v>
+        <v>0.24098807988448964</v>
       </c>
     </row>
     <row r="204" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4672,7 +4738,7 @@
         <v>1212</v>
       </c>
       <c r="B204">
-        <v>0.26945472167240059</v>
+        <v>0.21575581758736692</v>
       </c>
     </row>
     <row r="205" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4680,7 +4746,7 @@
         <v>1218</v>
       </c>
       <c r="B205">
-        <v>0.24761739389906759</v>
+        <v>0.22929755105552826</v>
       </c>
     </row>
     <row r="206" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4688,7 +4754,7 @@
         <v>1224</v>
       </c>
       <c r="B206">
-        <v>0.23332293647192376</v>
+        <v>0.23214614111871187</v>
       </c>
     </row>
     <row r="207" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4696,7 +4762,7 @@
         <v>1230</v>
       </c>
       <c r="B207">
-        <v>0.22834072756816681</v>
+        <v>0.2298293498078515</v>
       </c>
     </row>
     <row r="208" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4704,7 +4770,7 @@
         <v>1236</v>
       </c>
       <c r="B208">
-        <v>0.24098807988448964</v>
+        <v>0.20991818627151432</v>
       </c>
     </row>
     <row r="209" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4712,7 +4778,7 @@
         <v>1242</v>
       </c>
       <c r="B209">
-        <v>0.21575581758736692</v>
+        <v>0.18953653984871965</v>
       </c>
     </row>
     <row r="210" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4720,7 +4786,7 @@
         <v>1248</v>
       </c>
       <c r="B210">
-        <v>0.22929755105552826</v>
+        <v>0.17618916701628959</v>
       </c>
     </row>
     <row r="211" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4728,7 +4794,7 @@
         <v>1254</v>
       </c>
       <c r="B211">
-        <v>0.23214614111871187</v>
+        <v>0.17804952469233853</v>
       </c>
     </row>
     <row r="212" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4736,7 +4802,7 @@
         <v>1260</v>
       </c>
       <c r="B212">
-        <v>0.2298293498078515</v>
+        <v>0.1645155022610883</v>
       </c>
     </row>
     <row r="213" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4744,7 +4810,7 @@
         <v>1266</v>
       </c>
       <c r="B213">
-        <v>0.20991818627151432</v>
+        <v>0.17676232753149088</v>
       </c>
     </row>
     <row r="214" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4752,7 +4818,7 @@
         <v>1272</v>
       </c>
       <c r="B214">
-        <v>0.18953653984871965</v>
+        <v>0.17622919908798237</v>
       </c>
     </row>
     <row r="215" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4760,7 +4826,7 @@
         <v>1278</v>
       </c>
       <c r="B215">
-        <v>0.17618916701628959</v>
+        <v>0.15376355669863018</v>
       </c>
     </row>
     <row r="216" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4768,7 +4834,7 @@
         <v>1284</v>
       </c>
       <c r="B216">
-        <v>0.17804952469233853</v>
+        <v>0.15967656581106812</v>
       </c>
     </row>
     <row r="217" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4776,7 +4842,7 @@
         <v>1290</v>
       </c>
       <c r="B217">
-        <v>0.1645155022610883</v>
+        <v>0.14912103794057693</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4784,7 +4850,7 @@
         <v>1296</v>
       </c>
       <c r="B218">
-        <v>0.17676232753149088</v>
+        <v>0.13296404234557746</v>
       </c>
     </row>
     <row r="219" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4792,7 +4858,7 @@
         <v>1302</v>
       </c>
       <c r="B219">
-        <v>0.17622919908798237</v>
+        <v>0.13310542435533335</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4800,7 +4866,7 @@
         <v>1308</v>
       </c>
       <c r="B220">
-        <v>0.15376355669863018</v>
+        <v>0.12154956471318143</v>
       </c>
     </row>
     <row r="221" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4808,7 +4874,7 @@
         <v>1314</v>
       </c>
       <c r="B221">
-        <v>0.15967656581106812</v>
+        <v>0.12257581566907305</v>
       </c>
     </row>
     <row r="222" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4816,7 +4882,7 @@
         <v>1320</v>
       </c>
       <c r="B222">
-        <v>0.14912103794057693</v>
+        <v>0.10672568442228485</v>
       </c>
     </row>
     <row r="223" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4824,7 +4890,7 @@
         <v>1326</v>
       </c>
       <c r="B223">
-        <v>0.13296404234557746</v>
+        <v>0.1111526567396213</v>
       </c>
     </row>
     <row r="224" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4832,7 +4898,7 @@
         <v>1332</v>
       </c>
       <c r="B224">
-        <v>0.13310542435533335</v>
+        <v>9.7054832942874467E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4840,7 +4906,7 @@
         <v>1338</v>
       </c>
       <c r="B225">
-        <v>0.12154956471318143</v>
+        <v>0.10373358953722374</v>
       </c>
     </row>
     <row r="226" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4848,7 +4914,7 @@
         <v>1344</v>
       </c>
       <c r="B226">
-        <v>0.12257581566907305</v>
+        <v>8.6005514572274386E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4856,7 +4922,7 @@
         <v>1350</v>
       </c>
       <c r="B227">
-        <v>0.10672568442228485</v>
+        <v>9.0169156132296438E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4864,7 +4930,7 @@
         <v>1356</v>
       </c>
       <c r="B228">
-        <v>0.1111526567396213</v>
+        <v>8.5447643309867344E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4872,7 +4938,7 @@
         <v>1362</v>
       </c>
       <c r="B229">
-        <v>9.7054832942874467E-2</v>
+        <v>7.4276152774600313E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4880,7 +4946,7 @@
         <v>1368</v>
       </c>
       <c r="B230">
-        <v>0.10373358953722374</v>
+        <v>6.6716210735434156E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4888,7 +4954,7 @@
         <v>1374</v>
       </c>
       <c r="B231">
-        <v>8.6005514572274386E-2</v>
+        <v>6.3093042019829737E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4896,7 +4962,7 @@
         <v>1380</v>
       </c>
       <c r="B232">
-        <v>9.0169156132296438E-2</v>
+        <v>6.4079653313048338E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4904,7 +4970,7 @@
         <v>1386</v>
       </c>
       <c r="B233">
-        <v>8.5447643309867344E-2</v>
+        <v>5.0587122750596757E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4912,7 +4978,7 @@
         <v>1392</v>
       </c>
       <c r="B234">
-        <v>7.4276152774600313E-2</v>
+        <v>5.3432833252535797E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4920,7 +4986,7 @@
         <v>1398</v>
       </c>
       <c r="B235">
-        <v>6.6716210735434156E-2</v>
+        <v>4.9661496869127679E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4928,7 +4994,7 @@
         <v>1404</v>
       </c>
       <c r="B236">
-        <v>6.3093042019829737E-2</v>
+        <v>4.3056835306817108E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4936,7 +5002,7 @@
         <v>1410</v>
       </c>
       <c r="B237">
-        <v>6.4079653313048338E-2</v>
+        <v>4.1762836878039028E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4944,7 +5010,7 @@
         <v>1416</v>
       </c>
       <c r="B238">
-        <v>5.0587122750596757E-2</v>
+        <v>3.9150002263353814E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4952,7 +5018,7 @@
         <v>1422</v>
       </c>
       <c r="B239">
-        <v>5.3432833252535797E-2</v>
+        <v>3.0217189737102978E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4960,7 +5026,7 @@
         <v>1428</v>
       </c>
       <c r="B240">
-        <v>4.9661496869127679E-2</v>
+        <v>3.2697187796523967E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4968,7 +5034,7 @@
         <v>1434</v>
       </c>
       <c r="B241">
-        <v>4.3056835306817108E-2</v>
+        <v>2.6142323583014826E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4976,7 +5042,7 @@
         <v>1440</v>
       </c>
       <c r="B242">
-        <v>4.1762836878039028E-2</v>
+        <v>2.4900621253297013E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4984,7 +5050,7 @@
         <v>1446</v>
       </c>
       <c r="B243">
-        <v>3.9150002263353814E-2</v>
+        <v>2.3708775879600096E-2</v>
       </c>
     </row>
     <row r="244" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4992,7 +5058,7 @@
         <v>1452</v>
       </c>
       <c r="B244">
-        <v>3.0217189737102978E-2</v>
+        <v>2.1400982936459458E-2</v>
       </c>
     </row>
     <row r="245" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5000,7 +5066,7 @@
         <v>1458</v>
       </c>
       <c r="B245">
-        <v>3.2697187796523967E-2</v>
+        <v>2.0131783829100088E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5074,7 @@
         <v>1464</v>
       </c>
       <c r="B246">
-        <v>2.6142323583014826E-2</v>
+        <v>1.9445887514838774E-2</v>
       </c>
     </row>
     <row r="247" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5016,7 +5082,7 @@
         <v>1470</v>
       </c>
       <c r="B247">
-        <v>2.4900621253297013E-2</v>
+        <v>1.5019144777111771E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5024,7 +5090,7 @@
         <v>1476</v>
       </c>
       <c r="B248">
-        <v>2.3708775879600096E-2</v>
+        <v>1.347365265736881E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5032,7 +5098,7 @@
         <v>1482</v>
       </c>
       <c r="B249">
-        <v>2.1400982936459458E-2</v>
+        <v>1.3833793113558106E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5040,7 +5106,7 @@
         <v>1488</v>
       </c>
       <c r="B250">
-        <v>2.0131783829100088E-2</v>
+        <v>1.2638164962913312E-2</v>
       </c>
     </row>
     <row r="251" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5048,7 +5114,7 @@
         <v>1494</v>
       </c>
       <c r="B251">
-        <v>1.9445887514838774E-2</v>
+        <v>1.1564431187124012E-2</v>
       </c>
     </row>
     <row r="252" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5056,7 +5122,7 @@
         <v>1500</v>
       </c>
       <c r="B252">
-        <v>1.5019144777111771E-2</v>
+        <v>1.0475703879279446E-2</v>
       </c>
     </row>
     <row r="253" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5064,7 +5130,7 @@
         <v>1506</v>
       </c>
       <c r="B253">
-        <v>1.347365265736881E-2</v>
+        <v>8.9924773686684955E-3</v>
       </c>
     </row>
     <row r="254" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5072,7 +5138,7 @@
         <v>1512</v>
       </c>
       <c r="B254">
-        <v>1.3833793113558106E-2</v>
+        <v>7.7836420212174144E-3</v>
       </c>
     </row>
     <row r="255" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5080,7 +5146,7 @@
         <v>1518</v>
       </c>
       <c r="B255">
-        <v>1.2638164962913312E-2</v>
+        <v>6.3998123677269491E-3</v>
       </c>
     </row>
     <row r="256" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5088,7 +5154,7 @@
         <v>1524</v>
       </c>
       <c r="B256">
-        <v>1.1564431187124012E-2</v>
+        <v>6.3883193645768565E-3</v>
       </c>
     </row>
     <row r="257" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5096,7 +5162,7 @@
         <v>1530</v>
       </c>
       <c r="B257">
-        <v>1.0475703879279446E-2</v>
+        <v>5.6344173487780725E-3</v>
       </c>
     </row>
     <row r="258" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5170,7 @@
         <v>1536</v>
       </c>
       <c r="B258">
-        <v>8.9924773686684955E-3</v>
+        <v>4.8160635618609586E-3</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5112,7 +5178,7 @@
         <v>1542</v>
       </c>
       <c r="B259">
-        <v>7.7836420212174144E-3</v>
+        <v>4.0715344175005774E-3</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5120,7 +5186,7 @@
         <v>1548</v>
       </c>
       <c r="B260">
-        <v>6.3998123677269491E-3</v>
+        <v>3.3960962650017553E-3</v>
       </c>
     </row>
     <row r="261" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5128,7 +5194,7 @@
         <v>1554</v>
       </c>
       <c r="B261">
-        <v>6.3883193645768565E-3</v>
+        <v>3.3385409060165093E-3</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5136,7 +5202,7 @@
         <v>1560</v>
       </c>
       <c r="B262">
-        <v>5.6344173487780725E-3</v>
+        <v>2.5431105371724692E-3</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5144,7 +5210,7 @@
         <v>1566</v>
       </c>
       <c r="B263">
-        <v>4.8160635618609586E-3</v>
+        <v>2.196809830987888E-3</v>
       </c>
     </row>
     <row r="264" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5152,7 +5218,7 @@
         <v>1572</v>
       </c>
       <c r="B264">
-        <v>4.0715344175005774E-3</v>
+        <v>1.9611653603355955E-3</v>
       </c>
     </row>
     <row r="265" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5160,7 +5226,7 @@
         <v>1578</v>
       </c>
       <c r="B265">
-        <v>3.3960962650017553E-3</v>
+        <v>1.7555790631105445E-3</v>
       </c>
     </row>
     <row r="266" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5168,7 +5234,7 @@
         <v>1584</v>
       </c>
       <c r="B266">
-        <v>3.3385409060165093E-3</v>
+        <v>1.368135976141423E-3</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5242,7 @@
         <v>1590</v>
       </c>
       <c r="B267">
-        <v>2.5431105371724692E-3</v>
+        <v>1.1490193993368143E-3</v>
       </c>
     </row>
     <row r="268" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5250,7 @@
         <v>1596</v>
       </c>
       <c r="B268">
-        <v>2.196809830987888E-3</v>
+        <v>9.2340802857844291E-4</v>
       </c>
     </row>
     <row r="269" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5192,7 +5258,7 @@
         <v>1602</v>
       </c>
       <c r="B269">
-        <v>1.9611653603355955E-3</v>
+        <v>7.8332309838098223E-4</v>
       </c>
     </row>
     <row r="270" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5200,7 +5266,7 @@
         <v>1608</v>
       </c>
       <c r="B270">
-        <v>1.7555790631105445E-3</v>
+        <v>6.1990530983064868E-4</v>
       </c>
     </row>
     <row r="271" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5208,7 +5274,7 @@
         <v>1614</v>
       </c>
       <c r="B271">
-        <v>1.368135976141423E-3</v>
+        <v>4.2817900196283137E-4</v>
       </c>
     </row>
     <row r="272" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5216,7 +5282,7 @@
         <v>1620</v>
       </c>
       <c r="B272">
-        <v>1.1490193993368143E-3</v>
+        <v>3.3626469976897678E-4</v>
       </c>
     </row>
     <row r="273" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5224,7 +5290,7 @@
         <v>1626</v>
       </c>
       <c r="B273">
-        <v>9.2340802857844291E-4</v>
+        <v>2.2320646321010075E-4</v>
       </c>
     </row>
     <row r="274" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5298,7 @@
         <v>1632</v>
       </c>
       <c r="B274">
-        <v>7.8332309838098223E-4</v>
+        <v>1.3724091377526155E-4</v>
       </c>
     </row>
     <row r="275" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5240,7 +5306,7 @@
         <v>1638</v>
       </c>
       <c r="B275">
-        <v>6.1990530983064868E-4</v>
+        <v>7.1957052072373474E-5</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5248,7 +5314,7 @@
         <v>1644</v>
       </c>
       <c r="B276">
-        <v>4.2817900196283137E-4</v>
+        <v>3.4625581899536438E-5</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5256,7 +5322,7 @@
         <v>1650</v>
       </c>
       <c r="B277">
-        <v>3.3626469976897678E-4</v>
+        <v>8.702883652035869E-6</v>
       </c>
     </row>
     <row r="278" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5264,7 +5330,7 @@
         <v>1656</v>
       </c>
       <c r="B278">
-        <v>2.2320646321010075E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5272,7 +5338,7 @@
         <v>1662</v>
       </c>
       <c r="B279">
-        <v>1.3724091377526155E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5280,7 +5346,7 @@
         <v>1668</v>
       </c>
       <c r="B280">
-        <v>7.1957052072373474E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5288,7 +5354,7 @@
         <v>1674</v>
       </c>
       <c r="B281">
-        <v>3.4625581899536438E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5296,7 +5362,7 @@
         <v>1680</v>
       </c>
       <c r="B282">
-        <v>8.702883652035869E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5316,67 +5382,100 @@
       </c>
     </row>
     <row r="285" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285"/>
+      <c r="A285">
+        <f>A284+6</f>
+        <v>1698</v>
+      </c>
       <c r="B285">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286"/>
+      <c r="A286">
+        <f t="shared" ref="A286:A295" si="0">A285+6</f>
+        <v>1704</v>
+      </c>
       <c r="B286">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287"/>
+      <c r="A287">
+        <f t="shared" si="0"/>
+        <v>1710</v>
+      </c>
       <c r="B287">
         <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288"/>
+      <c r="A288">
+        <f t="shared" si="0"/>
+        <v>1716</v>
+      </c>
       <c r="B288">
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289"/>
+      <c r="A289">
+        <f t="shared" si="0"/>
+        <v>1722</v>
+      </c>
       <c r="B289">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290"/>
+      <c r="A290">
+        <f t="shared" si="0"/>
+        <v>1728</v>
+      </c>
       <c r="B290">
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291"/>
+      <c r="A291">
+        <f t="shared" si="0"/>
+        <v>1734</v>
+      </c>
       <c r="B291">
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292"/>
+      <c r="A292">
+        <f t="shared" si="0"/>
+        <v>1740</v>
+      </c>
       <c r="B292">
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293"/>
+      <c r="A293">
+        <f t="shared" si="0"/>
+        <v>1746</v>
+      </c>
       <c r="B293">
         <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294"/>
+      <c r="A294">
+        <f t="shared" si="0"/>
+        <v>1752</v>
+      </c>
       <c r="B294">
         <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295"/>
+      <c r="A295">
+        <f t="shared" si="0"/>
+        <v>1758</v>
+      </c>
       <c r="B295">
         <v>0</v>
       </c>
